--- a/WMM_All_configurations/MCBXFB_02_Outer_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Outer_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Outer_Collar_600_20210510/Roxie_vs_MM_NormalMCBXFB_02_Outer_Collar_600_20210510.xlsx
@@ -573,94 +573,94 @@
         <v>-1200</v>
       </c>
       <c r="C2">
-        <v>9803.076596270796</v>
+        <v>9803.076596270917</v>
       </c>
       <c r="D2">
-        <v>-1.655721840780632</v>
+        <v>-1.623116802729121</v>
       </c>
       <c r="E2">
-        <v>-13.37348982371435</v>
+        <v>-13.11013451013214</v>
       </c>
       <c r="F2">
-        <v>-0.2260275262427441</v>
+        <v>-0.2215765152623252</v>
       </c>
       <c r="G2">
-        <v>7.18361522886854</v>
+        <v>7.042153032673656</v>
       </c>
       <c r="H2">
-        <v>-0.1436832229852811</v>
+        <v>-0.1408537640523785</v>
       </c>
       <c r="I2">
-        <v>4.095647468561769</v>
+        <v>4.014994584563411</v>
       </c>
       <c r="J2">
-        <v>-0.06964745892630705</v>
+        <v>-0.06827593745902204</v>
       </c>
       <c r="K2">
-        <v>1.100118410073313</v>
+        <v>1.078454503891648</v>
       </c>
       <c r="L2">
-        <v>0.01515110684189392</v>
+        <v>0.01485274608893764</v>
       </c>
       <c r="M2">
-        <v>-0.1129715592654109</v>
+        <v>-0.1107468848678981</v>
       </c>
       <c r="N2">
-        <v>-0.003274644088003091</v>
+        <v>-0.003210158682024669</v>
       </c>
       <c r="O2">
-        <v>0.01608265114070703</v>
+        <v>0.01576594610035043</v>
       </c>
       <c r="P2">
-        <v>-0.03440457928116484</v>
+        <v>-0.03372707259556925</v>
       </c>
       <c r="Q2">
-        <v>-0.004882234576535511</v>
+        <v>-0.004786091951473356</v>
       </c>
       <c r="R2">
-        <v>-68.9503721988809</v>
+        <v>-85.85462730574083</v>
       </c>
       <c r="S2">
-        <v>2.723226728206788E-12</v>
+        <v>-4.056042687253865E-15</v>
       </c>
       <c r="T2">
-        <v>-0.1761193505963528</v>
+        <v>0.01083374460524887</v>
       </c>
       <c r="U2">
-        <v>4.862982836348018E-12</v>
+        <v>-4.780929021570105E-16</v>
       </c>
       <c r="V2">
-        <v>-4.118679158563167E-05</v>
+        <v>1.168890917761487E-05</v>
       </c>
       <c r="W2">
-        <v>-1.43443736673248E-11</v>
+        <v>7.752256655194196E-15</v>
       </c>
       <c r="X2">
-        <v>-4.967851375794017E-09</v>
+        <v>3.021160356279676E-09</v>
       </c>
       <c r="Y2">
-        <v>3.643008151782307E-12</v>
+        <v>-2.296035900163013E-15</v>
       </c>
       <c r="Z2">
-        <v>-8.149054546485396E-13</v>
+        <v>3.412687757586493E-12</v>
       </c>
       <c r="AA2">
-        <v>-7.256193306349064E-12</v>
+        <v>-2.99450830292504E-15</v>
       </c>
       <c r="AB2">
-        <v>1.940677651898994E-14</v>
+        <v>7.343463381509304E-15</v>
       </c>
       <c r="AC2">
-        <v>-9.900509850929525E-13</v>
+        <v>1.122228364368286E-14</v>
       </c>
       <c r="AD2">
-        <v>-1.413398878145264E-11</v>
+        <v>1.272973386458379E-15</v>
       </c>
       <c r="AE2">
-        <v>-4.900721975603174E-12</v>
+        <v>9.585799867875783E-15</v>
       </c>
       <c r="AF2">
-        <v>5.570449813456594E-12</v>
+        <v>3.860851780485226E-14</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -671,94 +671,94 @@
         <v>-600</v>
       </c>
       <c r="C3">
-        <v>9898.07573067149</v>
+        <v>9898.075730671611</v>
       </c>
       <c r="D3">
-        <v>0.3485544464971186</v>
+        <v>0.3450018307690805</v>
       </c>
       <c r="E3">
-        <v>-19.98091585111288</v>
+        <v>-19.77726182624921</v>
       </c>
       <c r="F3">
-        <v>-0.2171264123449372</v>
+        <v>-0.2149133672519221</v>
       </c>
       <c r="G3">
-        <v>1.469742231027433</v>
+        <v>1.454761990727579</v>
       </c>
       <c r="H3">
-        <v>-0.213599270989122</v>
+        <v>-0.2114221760266576</v>
       </c>
       <c r="I3">
-        <v>4.534911665902664</v>
+        <v>4.488689910101072</v>
       </c>
       <c r="J3">
-        <v>-0.09171121446268363</v>
+        <v>-0.09077645461035043</v>
       </c>
       <c r="K3">
-        <v>1.16245195384249</v>
+        <v>1.150603747240015</v>
       </c>
       <c r="L3">
-        <v>0.000837583663553413</v>
+        <v>0.0008290466532624503</v>
       </c>
       <c r="M3">
-        <v>-0.07237601283997086</v>
+        <v>-0.07163832561740857</v>
       </c>
       <c r="N3">
-        <v>-0.01119197165565118</v>
+        <v>-0.01107789830231555</v>
       </c>
       <c r="O3">
-        <v>-0.2720301417115523</v>
+        <v>-0.2692574943686147</v>
       </c>
       <c r="P3">
-        <v>-0.0202226679453042</v>
+        <v>-0.02001654987988458</v>
       </c>
       <c r="Q3">
-        <v>-0.002861319088229578</v>
+        <v>-0.002832155302489597</v>
       </c>
       <c r="R3">
-        <v>3116.342284334528</v>
+        <v>4250.736354136774</v>
       </c>
       <c r="S3">
-        <v>-4.108749747010058E-12</v>
+        <v>1.899317054832392E-13</v>
       </c>
       <c r="T3">
-        <v>-463.6891970917915</v>
+        <v>-4.904374331053778</v>
       </c>
       <c r="U3">
-        <v>3.880267728722023E-12</v>
+        <v>-1.781444734237937E-13</v>
       </c>
       <c r="V3">
-        <v>-115.6812758488143</v>
+        <v>-0.6781251582048761</v>
       </c>
       <c r="W3">
-        <v>2.451462778789136E-12</v>
+        <v>-2.989455804501879E-13</v>
       </c>
       <c r="X3">
-        <v>-13.01130639535709</v>
+        <v>0.944149198220479</v>
       </c>
       <c r="Y3">
-        <v>-5.464357848369902E-12</v>
+        <v>3.662296367272287E-13</v>
       </c>
       <c r="Z3">
-        <v>-1.139905762579502</v>
+        <v>0.1810032173126672</v>
       </c>
       <c r="AA3">
-        <v>-6.60447963681859E-12</v>
+        <v>-8.257709569998079E-13</v>
       </c>
       <c r="AB3">
-        <v>-0.06047892172329371</v>
+        <v>-0.04628955808208494</v>
       </c>
       <c r="AC3">
-        <v>6.932250567773073E-12</v>
+        <v>5.598935723348323E-13</v>
       </c>
       <c r="AD3">
-        <v>0.004872113600616698</v>
+        <v>-0.03146475895843957</v>
       </c>
       <c r="AE3">
-        <v>4.065133023605154E-12</v>
+        <v>2.519794515074252E-13</v>
       </c>
       <c r="AF3">
-        <v>0.001933090118058127</v>
+        <v>0.0003016796947173021</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -772,91 +772,91 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>1.070914692675538</v>
+        <v>1.070914692675539</v>
       </c>
       <c r="E4">
         <v>-19.85378874922338</v>
       </c>
       <c r="F4">
-        <v>-0.2137313394331525</v>
+        <v>-0.2137313394331523</v>
       </c>
       <c r="G4">
         <v>1.140489881099531</v>
       </c>
       <c r="H4">
-        <v>-0.2500210138594492</v>
+        <v>-0.2500210138594487</v>
       </c>
       <c r="I4">
-        <v>4.633856183512827</v>
+        <v>4.633856183512828</v>
       </c>
       <c r="J4">
-        <v>-0.08980684038600639</v>
+        <v>-0.08980684038600628</v>
       </c>
       <c r="K4">
         <v>1.15741839350241</v>
       </c>
       <c r="L4">
-        <v>0.006762133757860823</v>
+        <v>0.006762133757860266</v>
       </c>
       <c r="M4">
-        <v>-0.07729436521041133</v>
+        <v>-0.07729436521041172</v>
       </c>
       <c r="N4">
-        <v>0.05606664521192582</v>
+        <v>0.05606664521192392</v>
       </c>
       <c r="O4">
-        <v>-0.1806724710233036</v>
+        <v>-0.1806724710233127</v>
       </c>
       <c r="P4">
-        <v>-0.01947884215303713</v>
+        <v>-0.01947884215303555</v>
       </c>
       <c r="Q4">
-        <v>0.01049597863084312</v>
+        <v>0.010495978630842</v>
       </c>
       <c r="R4">
-        <v>10000</v>
+        <v>10053.83512543139</v>
       </c>
       <c r="S4">
-        <v>9.709519280017556E-13</v>
+        <v>-1.364798278083048E-12</v>
       </c>
       <c r="T4">
-        <v>-16.06588863686252</v>
+        <v>-16.11576858065114</v>
       </c>
       <c r="U4">
-        <v>-5.05798639057584E-12</v>
+        <v>4.060017147739935E-13</v>
       </c>
       <c r="V4">
-        <v>1.992536767395917</v>
+        <v>1.986617295214211</v>
       </c>
       <c r="W4">
-        <v>4.992683105290115E-12</v>
+        <v>5.973232021978054E-13</v>
       </c>
       <c r="X4">
-        <v>5.756932757737617</v>
+        <v>5.757784810706341</v>
       </c>
       <c r="Y4">
-        <v>-6.814406965683763E-12</v>
+        <v>-6.420715676951326E-13</v>
       </c>
       <c r="Z4">
-        <v>1.155923026267652</v>
+        <v>1.155825181643935</v>
       </c>
       <c r="AA4">
-        <v>3.554693787956391E-12</v>
+        <v>-3.831427268733069E-14</v>
       </c>
       <c r="AB4">
-        <v>-0.04034169898295164</v>
+        <v>-0.0403430232133415</v>
       </c>
       <c r="AC4">
-        <v>9.643667227628597E-13</v>
+        <v>1.029451608597849E-12</v>
       </c>
       <c r="AD4">
-        <v>-0.1046169605619375</v>
+        <v>-0.1046127229087321</v>
       </c>
       <c r="AE4">
-        <v>-1.667886149118315E-12</v>
+        <v>-7.495420215292956E-13</v>
       </c>
       <c r="AF4">
-        <v>0.002595704982805298</v>
+        <v>0.002594381419169133</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -867,94 +867,94 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>9905.314281694744</v>
+        <v>9905.314281694866</v>
       </c>
       <c r="D5">
-        <v>1.501573233666947</v>
+        <v>1.487355479645196</v>
       </c>
       <c r="E5">
-        <v>-20.04768536384281</v>
+        <v>-19.85786241493973</v>
       </c>
       <c r="F5">
-        <v>-0.1177171833631786</v>
+        <v>-0.1166025697568185</v>
       </c>
       <c r="G5">
-        <v>1.375734393980521</v>
+        <v>1.362708154051409</v>
       </c>
       <c r="H5">
-        <v>-0.1724084314557362</v>
+        <v>-0.1707759698383113</v>
       </c>
       <c r="I5">
-        <v>4.566595554658486</v>
+        <v>4.523356416628299</v>
       </c>
       <c r="J5">
-        <v>-0.09965068682388101</v>
+        <v>-0.09870713713772904</v>
       </c>
       <c r="K5">
-        <v>1.176031207897384</v>
+        <v>1.164895871930481</v>
       </c>
       <c r="L5">
-        <v>0.006964178982689884</v>
+        <v>0.006898238153751401</v>
       </c>
       <c r="M5">
-        <v>-0.07854765415839185</v>
+        <v>-0.077803920052874</v>
       </c>
       <c r="N5">
-        <v>0.01487172143671002</v>
+        <v>0.01473090747404357</v>
       </c>
       <c r="O5">
-        <v>-0.1923687507333235</v>
+        <v>-0.1905472933990691</v>
       </c>
       <c r="P5">
-        <v>-0.04537916669739761</v>
+        <v>-0.04494949079791635</v>
       </c>
       <c r="Q5">
-        <v>0.02978363634432165</v>
+        <v>0.02950162784422101</v>
       </c>
       <c r="R5">
-        <v>3133.10163166752</v>
+        <v>4260.813524873376</v>
       </c>
       <c r="S5">
-        <v>2.532172038265748E-12</v>
+        <v>-5.820229535632692E-13</v>
       </c>
       <c r="T5">
-        <v>-418.5122767300194</v>
+        <v>-1.392464301102987</v>
       </c>
       <c r="U5">
-        <v>-1.291074740553055E-12</v>
+        <v>-6.738650305857813E-14</v>
       </c>
       <c r="V5">
-        <v>-107.7681498551666</v>
+        <v>-0.05916572131225438</v>
       </c>
       <c r="W5">
-        <v>-1.433237276119835E-13</v>
+        <v>8.780859543495461E-13</v>
       </c>
       <c r="X5">
-        <v>-12.04763465585527</v>
+        <v>1.087766970577664</v>
       </c>
       <c r="Y5">
-        <v>1.337602138253711E-12</v>
+        <v>-4.187554964396916E-13</v>
       </c>
       <c r="Z5">
-        <v>-0.9418403687717775</v>
+        <v>0.2077226363640378</v>
       </c>
       <c r="AA5">
-        <v>-2.145843438243684E-12</v>
+        <v>7.790987287185776E-13</v>
       </c>
       <c r="AB5">
-        <v>-0.01861027267225786</v>
+        <v>-0.04144024203183552</v>
       </c>
       <c r="AC5">
-        <v>-1.334299594014642E-13</v>
+        <v>5.381684157529254E-13</v>
       </c>
       <c r="AD5">
-        <v>0.01231512027607395</v>
+        <v>-0.03084241377600528</v>
       </c>
       <c r="AE5">
-        <v>-3.330143347183242E-12</v>
+        <v>5.957537801052465E-13</v>
       </c>
       <c r="AF5">
-        <v>0.003139970566654249</v>
+        <v>0.0003894497799132393</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -965,94 +965,94 @@
         <v>1200</v>
       </c>
       <c r="C6">
-        <v>10038.68010434429</v>
+        <v>10038.68010434441</v>
       </c>
       <c r="D6">
-        <v>1.313002363741289</v>
+        <v>1.318081070584686</v>
       </c>
       <c r="E6">
-        <v>-19.86953211578919</v>
+        <v>-19.94638767334052</v>
       </c>
       <c r="F6">
-        <v>-0.03570956107663652</v>
+        <v>-0.03584768603149048</v>
       </c>
       <c r="G6">
-        <v>1.563456023700813</v>
+        <v>1.569503487914278</v>
       </c>
       <c r="H6">
-        <v>-0.2147751226682841</v>
+        <v>-0.2156058750838234</v>
       </c>
       <c r="I6">
-        <v>4.495169279299081</v>
+        <v>4.51255664097599</v>
       </c>
       <c r="J6">
-        <v>-0.1144059688386867</v>
+        <v>-0.114848492319917</v>
       </c>
       <c r="K6">
-        <v>1.169505427935799</v>
+        <v>1.17402908713419</v>
       </c>
       <c r="L6">
-        <v>0.01249894265547144</v>
+        <v>0.01254728869608168</v>
       </c>
       <c r="M6">
-        <v>-0.08897210188563937</v>
+        <v>-0.08931624690410626</v>
       </c>
       <c r="N6">
-        <v>-0.01613829533176415</v>
+        <v>-0.01620071842649914</v>
       </c>
       <c r="O6">
-        <v>-0.2623034243760403</v>
+        <v>-0.2633180167585202</v>
       </c>
       <c r="P6">
-        <v>0.004153543918100421</v>
+        <v>0.004169609869314606</v>
       </c>
       <c r="Q6">
-        <v>0.006912701908931743</v>
+        <v>0.00693944031204616</v>
       </c>
       <c r="R6">
-        <v>-67.19893866516735</v>
+        <v>-83.50427399563998</v>
       </c>
       <c r="S6">
-        <v>1.153482233272657E-13</v>
+        <v>-1.414880243919718E-14</v>
       </c>
       <c r="T6">
-        <v>-0.2641252631089792</v>
+        <v>0.01908398409562601</v>
       </c>
       <c r="U6">
-        <v>3.708910183173801E-14</v>
+        <v>-1.509290685128469E-15</v>
       </c>
       <c r="V6">
-        <v>-8.705595147166983E-05</v>
+        <v>0.0001045148195935405</v>
       </c>
       <c r="W6">
-        <v>1.234816679557984E-12</v>
+        <v>1.073174698991082E-14</v>
       </c>
       <c r="X6">
-        <v>-3.332235213715449E-08</v>
+        <v>1.432596819505779E-06</v>
       </c>
       <c r="Y6">
-        <v>-1.957235954095074E-12</v>
+        <v>-2.714130288343722E-15</v>
       </c>
       <c r="Z6">
-        <v>-1.197595665099087E-11</v>
+        <v>2.544464126453821E-08</v>
       </c>
       <c r="AA6">
-        <v>1.743122292702988E-12</v>
+        <v>-7.277983347676765E-15</v>
       </c>
       <c r="AB6">
-        <v>-9.598008691033177E-12</v>
+        <v>4.951644862091057E-10</v>
       </c>
       <c r="AC6">
-        <v>5.091497979075865E-12</v>
+        <v>-1.221386055043953E-14</v>
       </c>
       <c r="AD6">
-        <v>-2.180315868231686E-12</v>
+        <v>1.024059996922259E-11</v>
       </c>
       <c r="AE6">
-        <v>-4.348615736933456E-12</v>
+        <v>3.750290672352939E-15</v>
       </c>
       <c r="AF6">
-        <v>4.816714022359702E-12</v>
+        <v>2.16149271736694E-13</v>
       </c>
     </row>
   </sheetData>
